--- a/DP Table S2.xlsx
+++ b/DP Table S2.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Phase sampled</t>
+          <t>Phase</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
